--- a/Excel Projects/Formula Excel.xlsx
+++ b/Excel Projects/Formula Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e52e7eb24d0624ed/Desktop/Data-analysis-with-python-projects/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0CF434-4895-4F8C-836F-1C762EB6396F}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC336D4-04DA-4491-92C9-F695EE676A75}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="91">
   <si>
     <t>FirstName</t>
   </si>
@@ -275,9 +275,6 @@
     <t>TRIM(C2)</t>
   </si>
   <si>
-    <t>It just removes unwanted spaces on both sides</t>
-  </si>
-  <si>
     <t>TEXT(H2,"dd/mm/yyyy")</t>
   </si>
   <si>
@@ -326,10 +323,22 @@
     <t>NETWORKDAYS</t>
   </si>
   <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
+    <t xml:space="preserve">IFS </t>
+  </si>
+  <si>
+    <t>Left (FirstName)</t>
+  </si>
+  <si>
+    <t>Right (EmployeeID)</t>
+  </si>
+  <si>
+    <t>Right (StartDate)</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -721,22 +730,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -765,13 +774,13 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -808,7 +817,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -845,7 +854,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -876,7 +885,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -907,7 +916,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -938,7 +947,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -969,7 +978,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1000,7 +1009,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1031,7 +1040,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1078,22 +1087,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1458,13 +1467,13 @@
         <v>Kevin.Malone@gmail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" s="3" t="str">
         <f t="shared" ref="H11:H12" si="2">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1483,24 +1492,24 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1529,13 +1538,13 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1878,27 +1887,27 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1927,13 +1936,16 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1962,15 +1974,19 @@
         <v>42253</v>
       </c>
       <c r="J2" s="3" t="str" cm="1">
-        <f t="array" ref="J2:J10">IF(D2:D10 &gt;= 30, "Old", "Young")</f>
-        <v>Old</v>
+        <f t="array" ref="J2:J10">IF(D2:D10 &gt; 30, "Old", "Young")</f>
+        <v>Young</v>
       </c>
       <c r="K2" s="3" t="str" cm="1">
-        <f t="array" ref="K2:K10">_xlfn.IFS(F2:F10 = "Salesman", "Sales", F2:F10 = "HR", "Fire", F2:F10 = "Regional Manager", "Give Bonus")</f>
+        <f t="array" ref="K2:K10">_xlfn.IFS(F2:F10 = "Salesman", "Sales", F2:F10 = "HR", "Fire", F2:F10 = "Regional Manager", "Give Bonus", F2:F10 = "Accountant", "Give bigas", F2:F10 = "Supplier Relations", "Give love", F2:F10 = "Receptionist", "Give slap")</f>
         <v>Sales</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10" xml:space="preserve"> _xlfn.IFS(D2:D10 &gt; 30, "Old", D2:D10 &lt;= 30, "Young")</f>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1999,13 +2015,16 @@
         <v>42287</v>
       </c>
       <c r="J3" s="3" t="str">
-        <v>Old</v>
-      </c>
-      <c r="K3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Young</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <v>Give slap</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2039,8 +2058,11 @@
       <c r="K4" s="3" t="str">
         <v>Sales</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="str">
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2071,11 +2093,14 @@
       <c r="J5" s="3" t="str">
         <v>Old</v>
       </c>
-      <c r="K5" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="3" t="str">
+        <v>Give bigas</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2109,8 +2134,11 @@
       <c r="K6" s="3" t="str">
         <v>Fire</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2144,8 +2172,11 @@
       <c r="K7" s="3" t="str">
         <v>Give Bonus</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2176,11 +2207,14 @@
       <c r="J8" s="3" t="str">
         <v>Old</v>
       </c>
-      <c r="K8" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="str">
+        <v>Give love</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -2214,8 +2248,11 @@
       <c r="K9" s="3" t="str">
         <v>Sales</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -2246,8 +2283,22 @@
       <c r="J10" s="3" t="str">
         <v>Old</v>
       </c>
-      <c r="K10" s="3" t="e">
-        <v>#N/A</v>
+      <c r="K10" s="3" t="str">
+        <v>Give bigas</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT(B2," ", C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2263,24 +2314,24 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2315,7 +2366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2349,7 +2400,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2382,7 +2433,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2415,7 +2466,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2448,7 +2499,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2481,7 +2532,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2514,7 +2565,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2547,7 +2598,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -2580,7 +2631,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -2626,26 +2677,27 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2683,10 +2735,10 @@
         <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2730,7 +2782,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2758,7 +2810,7 @@
       <c r="I3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="3" t="str">
@@ -2771,7 +2823,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2812,7 +2864,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2853,7 +2905,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2894,7 +2946,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2935,7 +2987,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2976,7 +3028,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3061,6 +3113,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00FA4EB5-3905-424E-89D7-5D7515CD267E}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{9D00423E-CE25-4CA9-B5C7-39C21A351DDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3074,26 +3127,26 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3122,13 +3175,13 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -3170,7 +3223,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -3209,7 +3262,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -3248,7 +3301,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -3287,7 +3340,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -3326,7 +3379,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -3365,7 +3418,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3404,7 +3457,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3443,7 +3496,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3482,10 +3535,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -3501,25 +3554,25 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3551,10 +3604,10 @@
         <v>68</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -3595,7 +3648,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -3635,7 +3688,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -3675,7 +3728,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -3715,7 +3768,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -3755,7 +3808,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -3795,7 +3848,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3835,7 +3888,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3875,7 +3928,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3928,26 +3981,26 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3976,16 +4029,16 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4026,7 +4079,7 @@
         <v>11-2-2001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4064,7 +4117,7 @@
         <v>10-3-1999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4102,7 +4155,7 @@
         <v>7-4-2000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4140,7 +4193,7 @@
         <v>1-5-2000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4178,7 +4231,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -4216,7 +4269,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -4254,7 +4307,7 @@
         <v>11-8-2003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -4292,7 +4345,7 @@
         <v>6-9-2002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -4330,39 +4383,39 @@
         <v>8-10-2003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -4379,25 +4432,25 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J3:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4426,16 +4479,16 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4476,7 +4529,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4508,7 +4561,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4540,7 +4593,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4572,7 +4625,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4604,7 +4657,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -4636,7 +4689,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -4668,7 +4721,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -4700,7 +4753,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -4745,25 +4798,25 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4792,16 +4845,16 @@
         <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4842,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4874,7 +4927,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4906,7 +4959,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4938,7 +4991,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4970,7 +5023,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -5002,7 +5055,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -5034,7 +5087,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -5066,7 +5119,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>

--- a/Excel Projects/Formula Excel.xlsx
+++ b/Excel Projects/Formula Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e52e7eb24d0624ed/Desktop/Data-analysis-with-python-projects/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC336D4-04DA-4491-92C9-F695EE676A75}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD6064C-E245-4778-803A-5C624EBA59BB}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -733,19 +733,19 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -780,7 +780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -817,7 +817,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -854,7 +854,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1087,22 +1087,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1467,13 +1467,13 @@
         <v>Kevin.Malone@gmail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H11" s="3" t="str">
         <f t="shared" ref="H11:H12" si="2">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H12" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1495,21 +1495,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1889,25 +1889,25 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>Young</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>Young</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>Young</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -2290,13 +2290,13 @@
         <v>Old</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(B2," ", C2)</f>
         <v>Jim Halpert</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>90</v>
       </c>
@@ -2317,21 +2317,21 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -2676,28 +2676,28 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3130,23 +3130,23 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3535,10 +3535,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -3557,22 +3557,22 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3984,23 +3984,23 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>11-2-2001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>10-3-1999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>7-4-2000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>1-5-2000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>11-8-2003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>6-9-2002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -4383,39 +4383,39 @@
         <v>8-10-2003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -4436,21 +4436,21 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -4801,22 +4801,22 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
